--- a/Code/Results/Cases/Case_5_236/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_236/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.009728056559584</v>
+        <v>1.058134008642893</v>
       </c>
       <c r="D2">
-        <v>1.031651309645935</v>
+        <v>1.062455705162352</v>
       </c>
       <c r="E2">
-        <v>1.012388350949163</v>
+        <v>1.053963137347904</v>
       </c>
       <c r="F2">
-        <v>1.035819859174088</v>
+        <v>1.071201952948032</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053921547737863</v>
+        <v>1.047987611823277</v>
       </c>
       <c r="J2">
-        <v>1.031621645887248</v>
+        <v>1.063126810246375</v>
       </c>
       <c r="K2">
-        <v>1.042686622814391</v>
+        <v>1.06517700479328</v>
       </c>
       <c r="L2">
-        <v>1.023677752707696</v>
+        <v>1.056707657155979</v>
       </c>
       <c r="M2">
-        <v>1.046801741349426</v>
+        <v>1.073899755022633</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.018974137114885</v>
+        <v>1.059862937996661</v>
       </c>
       <c r="D3">
-        <v>1.039018107072135</v>
+        <v>1.063832423060787</v>
       </c>
       <c r="E3">
-        <v>1.020417931034897</v>
+        <v>1.055481907089025</v>
       </c>
       <c r="F3">
-        <v>1.043760305110438</v>
+        <v>1.072715604502015</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057369300032614</v>
+        <v>1.048502448399858</v>
       </c>
       <c r="J3">
-        <v>1.038960581021364</v>
+        <v>1.06450474203489</v>
       </c>
       <c r="K3">
-        <v>1.049174946395992</v>
+        <v>1.066367129738078</v>
       </c>
       <c r="L3">
-        <v>1.030796059678706</v>
+        <v>1.058037771461454</v>
       </c>
       <c r="M3">
-        <v>1.053862284312469</v>
+        <v>1.075228193111517</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.024739179133854</v>
+        <v>1.060978667832774</v>
       </c>
       <c r="D4">
-        <v>1.043614525284028</v>
+        <v>1.06472058198062</v>
       </c>
       <c r="E4">
-        <v>1.02542484102133</v>
+        <v>1.056461518941099</v>
       </c>
       <c r="F4">
-        <v>1.048718336115483</v>
+        <v>1.073692580818812</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059503737642198</v>
+        <v>1.048832764465002</v>
       </c>
       <c r="J4">
-        <v>1.043530547633804</v>
+        <v>1.065393040585171</v>
       </c>
       <c r="K4">
-        <v>1.05321358501192</v>
+        <v>1.067134021105517</v>
       </c>
       <c r="L4">
-        <v>1.035225797053881</v>
+        <v>1.0588948165296</v>
       </c>
       <c r="M4">
-        <v>1.058262288484404</v>
+        <v>1.076084818791365</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.027114236986112</v>
+        <v>1.061447016811284</v>
       </c>
       <c r="D5">
-        <v>1.045508739529367</v>
+        <v>1.065093335774026</v>
       </c>
       <c r="E5">
-        <v>1.027487560272903</v>
+        <v>1.056872610763556</v>
       </c>
       <c r="F5">
-        <v>1.05076246177777</v>
+        <v>1.074102725050798</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060379328564048</v>
+        <v>1.04897095987755</v>
       </c>
       <c r="J5">
-        <v>1.045411758875384</v>
+        <v>1.065765699724994</v>
       </c>
       <c r="K5">
-        <v>1.054875643207239</v>
+        <v>1.067455666623572</v>
       </c>
       <c r="L5">
-        <v>1.037048602362447</v>
+        <v>1.059254262085241</v>
       </c>
       <c r="M5">
-        <v>1.060074299852275</v>
+        <v>1.076444245917837</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.027510268592736</v>
+        <v>1.061525613827975</v>
       </c>
       <c r="D6">
-        <v>1.045824623586013</v>
+        <v>1.065155886251875</v>
       </c>
       <c r="E6">
-        <v>1.027831507653817</v>
+        <v>1.056941592053395</v>
       </c>
       <c r="F6">
-        <v>1.051103397796615</v>
+        <v>1.074171556597444</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0605251073215</v>
+        <v>1.048994124384609</v>
       </c>
       <c r="J6">
-        <v>1.045725352852606</v>
+        <v>1.065828225353812</v>
       </c>
       <c r="K6">
-        <v>1.0551526782668</v>
+        <v>1.067509628307764</v>
       </c>
       <c r="L6">
-        <v>1.037352420161967</v>
+        <v>1.059314564724134</v>
       </c>
       <c r="M6">
-        <v>1.060376401985334</v>
+        <v>1.07650455468072</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.024771101162457</v>
+        <v>1.060984928679717</v>
       </c>
       <c r="D7">
-        <v>1.043639982327914</v>
+        <v>1.064725565188528</v>
       </c>
       <c r="E7">
-        <v>1.025452565199967</v>
+        <v>1.056467014847937</v>
       </c>
       <c r="F7">
-        <v>1.048745804349788</v>
+        <v>1.073698063435705</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05951552099365</v>
+        <v>1.048834613662381</v>
       </c>
       <c r="J7">
-        <v>1.043555838164242</v>
+        <v>1.065398023129205</v>
       </c>
       <c r="K7">
-        <v>1.05323593107131</v>
+        <v>1.067138321903632</v>
       </c>
       <c r="L7">
-        <v>1.035250305088025</v>
+        <v>1.058899622806071</v>
       </c>
       <c r="M7">
-        <v>1.058286645739992</v>
+        <v>1.07608962420306</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.012900185361894</v>
+        <v>1.058718939341728</v>
       </c>
       <c r="D8">
-        <v>1.034177935693508</v>
+        <v>1.062921532772319</v>
       </c>
       <c r="E8">
-        <v>1.015142984041835</v>
+        <v>1.054477069542585</v>
       </c>
       <c r="F8">
-        <v>1.038542451001447</v>
+        <v>1.071714014488179</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055107584721865</v>
+        <v>1.048162189738353</v>
       </c>
       <c r="J8">
-        <v>1.034140685618967</v>
+        <v>1.06359318258187</v>
       </c>
       <c r="K8">
-        <v>1.044914022126743</v>
+        <v>1.065579881671759</v>
       </c>
       <c r="L8">
-        <v>1.026121667609259</v>
+        <v>1.05715793412514</v>
       </c>
       <c r="M8">
-        <v>1.049224472586189</v>
+        <v>1.074349326934912</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9901298103473724</v>
+        <v>1.054702296365188</v>
       </c>
       <c r="D9">
-        <v>1.01606214953533</v>
+        <v>1.059721659471585</v>
       </c>
       <c r="E9">
-        <v>0.9953758122506577</v>
+        <v>1.05094593520868</v>
       </c>
       <c r="F9">
-        <v>1.019037701714293</v>
+        <v>1.068198517476201</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046530606434981</v>
+        <v>1.046955483554464</v>
       </c>
       <c r="J9">
-        <v>1.016035990472962</v>
+        <v>1.0603868823516</v>
       </c>
       <c r="K9">
-        <v>1.028899895969912</v>
+        <v>1.062808747583995</v>
       </c>
       <c r="L9">
-        <v>1.008544361868942</v>
+        <v>1.05406051604946</v>
       </c>
       <c r="M9">
-        <v>1.031829276163754</v>
+        <v>1.071259517233207</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9734001722719349</v>
+        <v>1.052007657544746</v>
       </c>
       <c r="D10">
-        <v>1.002789139808593</v>
+        <v>1.057573641600839</v>
       </c>
       <c r="E10">
-        <v>0.9808672227052504</v>
+        <v>1.048574471348</v>
       </c>
       <c r="F10">
-        <v>1.004767782086761</v>
+        <v>1.065841100597632</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040152092055699</v>
+        <v>1.046136025715468</v>
       </c>
       <c r="J10">
-        <v>1.002710399720757</v>
+        <v>1.05823113736911</v>
       </c>
       <c r="K10">
-        <v>1.017108217420864</v>
+        <v>1.060943890426828</v>
       </c>
       <c r="L10">
-        <v>0.9955907370331063</v>
+        <v>1.051975736321832</v>
       </c>
       <c r="M10">
-        <v>1.019051483057992</v>
+        <v>1.069183362327295</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9657032222329535</v>
+        <v>1.050836632389139</v>
       </c>
       <c r="D11">
-        <v>0.996694987845068</v>
+        <v>1.056639867987466</v>
       </c>
       <c r="E11">
-        <v>0.9741980825168201</v>
+        <v>1.047543293001747</v>
       </c>
       <c r="F11">
-        <v>0.9982208518846811</v>
+        <v>1.064816884663705</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037200985764337</v>
+        <v>1.045777563910668</v>
       </c>
       <c r="J11">
-        <v>0.9965758218884563</v>
+        <v>1.057293183857207</v>
       </c>
       <c r="K11">
-        <v>1.011679502164735</v>
+        <v>1.060132105555585</v>
       </c>
       <c r="L11">
-        <v>0.9896235598485272</v>
+        <v>1.051068124609696</v>
       </c>
       <c r="M11">
-        <v>1.01317639850907</v>
+        <v>1.06828034676959</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9627672185609191</v>
+        <v>1.050401007657316</v>
       </c>
       <c r="D12">
-        <v>0.9943726242813377</v>
+        <v>1.056292458381121</v>
       </c>
       <c r="E12">
-        <v>0.9716552900297202</v>
+        <v>1.047159602349567</v>
       </c>
       <c r="F12">
-        <v>0.9957266871398467</v>
+        <v>1.064435914150284</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036072993406642</v>
+        <v>1.04564386334023</v>
       </c>
       <c r="J12">
-        <v>0.994235420161124</v>
+        <v>1.056944094849261</v>
       </c>
       <c r="K12">
-        <v>1.009608435930059</v>
+        <v>1.05982991538922</v>
       </c>
       <c r="L12">
-        <v>0.9873464511967878</v>
+        <v>1.050730247642173</v>
       </c>
       <c r="M12">
-        <v>1.010936217585899</v>
+        <v>1.067944308074646</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.963400649277629</v>
+        <v>1.050494480528784</v>
       </c>
       <c r="D13">
-        <v>0.9948735564285359</v>
+        <v>1.056367004684393</v>
       </c>
       <c r="E13">
-        <v>0.9722038304442542</v>
+        <v>1.04724193565691</v>
       </c>
       <c r="F13">
-        <v>0.9962646431101035</v>
+        <v>1.064517657886601</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036316453142169</v>
+        <v>1.045672567643766</v>
       </c>
       <c r="J13">
-        <v>0.994740365106957</v>
+        <v>1.057019007152128</v>
       </c>
       <c r="K13">
-        <v>1.010055267964738</v>
+        <v>1.059894766147056</v>
       </c>
       <c r="L13">
-        <v>0.9878377662425364</v>
+        <v>1.050802757563159</v>
       </c>
       <c r="M13">
-        <v>1.011419482505114</v>
+        <v>1.068016417723265</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9654621603397353</v>
+        <v>1.050800636959164</v>
       </c>
       <c r="D14">
-        <v>0.9965042612101729</v>
+        <v>1.056611162595421</v>
       </c>
       <c r="E14">
-        <v>0.9739892804411311</v>
+        <v>1.047511590675233</v>
       </c>
       <c r="F14">
-        <v>0.9980160008302088</v>
+        <v>1.064785404441023</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037108416634851</v>
+        <v>1.045766523475363</v>
       </c>
       <c r="J14">
-        <v>0.9963836682814634</v>
+        <v>1.057264342240737</v>
       </c>
       <c r="K14">
-        <v>1.01150946037873</v>
+        <v>1.060107139901145</v>
       </c>
       <c r="L14">
-        <v>0.9894366143103785</v>
+        <v>1.051040210973337</v>
       </c>
       <c r="M14">
-        <v>1.012992447832607</v>
+        <v>1.068252582402512</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9667218227870156</v>
+        <v>1.050989182841146</v>
       </c>
       <c r="D15">
-        <v>0.9975009917520591</v>
+        <v>1.056761521133533</v>
       </c>
       <c r="E15">
-        <v>0.9750804184288477</v>
+        <v>1.04767764541029</v>
       </c>
       <c r="F15">
-        <v>0.9990865752370021</v>
+        <v>1.064950301116838</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037592042460945</v>
+        <v>1.045824339441109</v>
       </c>
       <c r="J15">
-        <v>0.9973877482632255</v>
+        <v>1.0574154092293</v>
       </c>
       <c r="K15">
-        <v>1.012397999431365</v>
+        <v>1.060237902923338</v>
       </c>
       <c r="L15">
-        <v>0.9904134569047683</v>
+        <v>1.05118641407533</v>
       </c>
       <c r="M15">
-        <v>1.013953714461047</v>
+        <v>1.068398008889643</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9739007234166657</v>
+        <v>1.052085283956068</v>
       </c>
       <c r="D16">
-        <v>1.003185743680318</v>
+        <v>1.057635534659153</v>
       </c>
       <c r="E16">
-        <v>0.9813010757680188</v>
+        <v>1.048642814883365</v>
       </c>
       <c r="F16">
-        <v>1.005193954231953</v>
+        <v>1.065909000752556</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040343685571106</v>
+        <v>1.046159738599958</v>
       </c>
       <c r="J16">
-        <v>1.003109284686058</v>
+        <v>1.05829329013411</v>
       </c>
       <c r="K16">
-        <v>1.017461206400517</v>
+        <v>1.060997674462921</v>
       </c>
       <c r="L16">
-        <v>0.9959786586848262</v>
+        <v>1.052035867241294</v>
       </c>
       <c r="M16">
-        <v>1.019433655174617</v>
+        <v>1.069243206504865</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9782767772969316</v>
+        <v>1.052771694054881</v>
       </c>
       <c r="D17">
-        <v>1.006654475122333</v>
+        <v>1.058182788839463</v>
       </c>
       <c r="E17">
-        <v>0.98509471503751</v>
+        <v>1.049247072507124</v>
       </c>
       <c r="F17">
-        <v>1.008921845528035</v>
+        <v>1.066509436867205</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042016861772783</v>
+        <v>1.046369149006053</v>
       </c>
       <c r="J17">
-        <v>1.006596124853119</v>
+        <v>1.058842745875994</v>
       </c>
       <c r="K17">
-        <v>1.020546824701875</v>
+        <v>1.06147310177123</v>
       </c>
       <c r="L17">
-        <v>0.9993692346072006</v>
+        <v>1.052567387383254</v>
       </c>
       <c r="M17">
-        <v>1.022775230172561</v>
+        <v>1.069772289052646</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9807862429825863</v>
+        <v>1.053171658699874</v>
       </c>
       <c r="D18">
-        <v>1.008644766536764</v>
+        <v>1.058501639983026</v>
       </c>
       <c r="E18">
-        <v>0.9872707277158098</v>
+        <v>1.049599110156375</v>
       </c>
       <c r="F18">
-        <v>1.011061297900667</v>
+        <v>1.06685933027904</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042974804881602</v>
+        <v>1.046490944632908</v>
       </c>
       <c r="J18">
-        <v>1.008595303625809</v>
+        <v>1.05916280078532</v>
       </c>
       <c r="K18">
-        <v>1.022315930008982</v>
+        <v>1.061749997474784</v>
       </c>
       <c r="L18">
-        <v>1.001312863067814</v>
+        <v>1.052876943468188</v>
       </c>
       <c r="M18">
-        <v>1.024691791936596</v>
+        <v>1.070080506347617</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9816348561070171</v>
+        <v>1.053307967872826</v>
       </c>
       <c r="D19">
-        <v>1.009317995330927</v>
+        <v>1.05861030052012</v>
       </c>
       <c r="E19">
-        <v>0.9880066626524461</v>
+        <v>1.049719075893093</v>
       </c>
       <c r="F19">
-        <v>1.011785059350371</v>
+        <v>1.066978579213263</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043298480291031</v>
+        <v>1.046532414632706</v>
       </c>
       <c r="J19">
-        <v>1.009271288654212</v>
+        <v>1.059271858188925</v>
       </c>
       <c r="K19">
-        <v>1.022914112077255</v>
+        <v>1.061844342083201</v>
       </c>
       <c r="L19">
-        <v>1.001970004103372</v>
+        <v>1.052982414723736</v>
       </c>
       <c r="M19">
-        <v>1.025339952030965</v>
+        <v>1.070185535142712</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9778117766162252</v>
+        <v>1.052698090953404</v>
       </c>
       <c r="D20">
-        <v>1.00628576631266</v>
+        <v>1.058124110250785</v>
       </c>
       <c r="E20">
-        <v>0.9846915445252364</v>
+        <v>1.049182284487373</v>
       </c>
       <c r="F20">
-        <v>1.008525541432606</v>
+        <v>1.066445050076735</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041839229415317</v>
+        <v>1.046346717491067</v>
       </c>
       <c r="J20">
-        <v>1.006225648844711</v>
+        <v>1.058783839404239</v>
       </c>
       <c r="K20">
-        <v>1.020218981308076</v>
+        <v>1.061422135730705</v>
       </c>
       <c r="L20">
-        <v>0.9990090238249458</v>
+        <v>1.052510409090183</v>
       </c>
       <c r="M20">
-        <v>1.022420117915982</v>
+        <v>1.0697155636918</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.964857303353668</v>
+        <v>1.050710499720432</v>
       </c>
       <c r="D21">
-        <v>0.9960257397496072</v>
+        <v>1.056539279868397</v>
       </c>
       <c r="E21">
-        <v>0.9734653871726259</v>
+        <v>1.047432202484727</v>
       </c>
       <c r="F21">
-        <v>0.9975020540110341</v>
+        <v>1.064706574532445</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036876112035539</v>
+        <v>1.045738871111203</v>
       </c>
       <c r="J21">
-        <v>0.9959015236951971</v>
+        <v>1.057192116376705</v>
       </c>
       <c r="K21">
-        <v>1.011082798927156</v>
+        <v>1.060044619366205</v>
       </c>
       <c r="L21">
-        <v>0.9889675284585226</v>
+        <v>1.050970307676626</v>
       </c>
       <c r="M21">
-        <v>1.012530905785745</v>
+        <v>1.068183054974101</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9562609346177564</v>
+        <v>1.049457029924785</v>
       </c>
       <c r="D22">
-        <v>0.9892308362635642</v>
+        <v>1.055539561229508</v>
       </c>
       <c r="E22">
-        <v>0.9660228414196482</v>
+        <v>1.046328000218802</v>
       </c>
       <c r="F22">
-        <v>0.9902059050361181</v>
+        <v>1.063610445817473</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03356931400328</v>
+        <v>1.045353497663065</v>
       </c>
       <c r="J22">
-        <v>0.9890485884179265</v>
+        <v>1.056187329673078</v>
       </c>
       <c r="K22">
-        <v>1.00501869431246</v>
+        <v>1.05917471186443</v>
       </c>
       <c r="L22">
-        <v>0.9822988396942123</v>
+        <v>1.049997640403431</v>
       </c>
       <c r="M22">
-        <v>1.005973914141366</v>
+        <v>1.06721592058968</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C23">
-        <v>0.9608642898675854</v>
+        <v>1.050121883685967</v>
       </c>
       <c r="D23">
-        <v>0.9928681057589013</v>
+        <v>1.056069845768155</v>
       </c>
       <c r="E23">
-        <v>0.9700075772636441</v>
+        <v>1.046913729730894</v>
       </c>
       <c r="F23">
-        <v>0.9941110791045135</v>
+        <v>1.064191821222834</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035341280785735</v>
+        <v>1.045558096534513</v>
       </c>
       <c r="J23">
-        <v>0.9927184474110265</v>
+        <v>1.056720371004389</v>
       </c>
       <c r="K23">
-        <v>1.008266061459147</v>
+        <v>1.059636231546261</v>
       </c>
       <c r="L23">
-        <v>0.9858703425468649</v>
+        <v>1.050513686628482</v>
       </c>
       <c r="M23">
-        <v>1.00948456646811</v>
+        <v>1.067728961232717</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9780220226675507</v>
+        <v>1.052731350283306</v>
       </c>
       <c r="D24">
-        <v>1.00645247132384</v>
+        <v>1.058150625669727</v>
       </c>
       <c r="E24">
-        <v>0.9848738329521689</v>
+        <v>1.049211560688679</v>
       </c>
       <c r="F24">
-        <v>1.008704721721213</v>
+        <v>1.066474144717925</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041919549181863</v>
+        <v>1.046356854408302</v>
       </c>
       <c r="J24">
-        <v>1.006393157526289</v>
+        <v>1.05881045804198</v>
       </c>
       <c r="K24">
-        <v>1.020367213997359</v>
+        <v>1.061445166366618</v>
       </c>
       <c r="L24">
-        <v>0.9991718922534254</v>
+        <v>1.052536156582179</v>
       </c>
       <c r="M24">
-        <v>1.022580677883224</v>
+        <v>1.069741196638185</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9962644360654607</v>
+        <v>1.055743598831266</v>
       </c>
       <c r="D25">
-        <v>1.020937625699265</v>
+        <v>1.06055145536722</v>
       </c>
       <c r="E25">
-        <v>1.000699584077178</v>
+        <v>1.051861818507636</v>
       </c>
       <c r="F25">
-        <v>1.024283495160336</v>
+        <v>1.069109726669904</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048854790361146</v>
+        <v>1.047270063626385</v>
       </c>
       <c r="J25">
-        <v>1.020918174163428</v>
+        <v>1.061218940711611</v>
       </c>
       <c r="K25">
-        <v>1.033219379712749</v>
+        <v>1.063528176960801</v>
       </c>
       <c r="L25">
-        <v>1.013287049602709</v>
+        <v>1.054864711110113</v>
       </c>
       <c r="M25">
-        <v>1.036516183959031</v>
+        <v>1.072061125483575</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_236/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_236/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.058134008642893</v>
+        <v>1.009728056559584</v>
       </c>
       <c r="D2">
-        <v>1.062455705162352</v>
+        <v>1.031651309645934</v>
       </c>
       <c r="E2">
-        <v>1.053963137347904</v>
+        <v>1.012388350949162</v>
       </c>
       <c r="F2">
-        <v>1.071201952948032</v>
+        <v>1.035819859174088</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047987611823277</v>
+        <v>1.053921547737863</v>
       </c>
       <c r="J2">
-        <v>1.063126810246375</v>
+        <v>1.031621645887247</v>
       </c>
       <c r="K2">
-        <v>1.06517700479328</v>
+        <v>1.04268662281439</v>
       </c>
       <c r="L2">
-        <v>1.056707657155979</v>
+        <v>1.023677752707696</v>
       </c>
       <c r="M2">
-        <v>1.073899755022633</v>
+        <v>1.046801741349426</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.059862937996661</v>
+        <v>1.018974137114887</v>
       </c>
       <c r="D3">
-        <v>1.063832423060787</v>
+        <v>1.039018107072136</v>
       </c>
       <c r="E3">
-        <v>1.055481907089025</v>
+        <v>1.020417931034898</v>
       </c>
       <c r="F3">
-        <v>1.072715604502015</v>
+        <v>1.043760305110439</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048502448399858</v>
+        <v>1.057369300032615</v>
       </c>
       <c r="J3">
-        <v>1.06450474203489</v>
+        <v>1.038960581021365</v>
       </c>
       <c r="K3">
-        <v>1.066367129738078</v>
+        <v>1.049174946395993</v>
       </c>
       <c r="L3">
-        <v>1.058037771461454</v>
+        <v>1.030796059678707</v>
       </c>
       <c r="M3">
-        <v>1.075228193111517</v>
+        <v>1.05386228431247</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.060978667832774</v>
+        <v>1.024739179133856</v>
       </c>
       <c r="D4">
-        <v>1.06472058198062</v>
+        <v>1.043614525284029</v>
       </c>
       <c r="E4">
-        <v>1.056461518941099</v>
+        <v>1.025424841021331</v>
       </c>
       <c r="F4">
-        <v>1.073692580818812</v>
+        <v>1.048718336115484</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048832764465002</v>
+        <v>1.059503737642199</v>
       </c>
       <c r="J4">
-        <v>1.065393040585171</v>
+        <v>1.043530547633806</v>
       </c>
       <c r="K4">
-        <v>1.067134021105517</v>
+        <v>1.053213585011922</v>
       </c>
       <c r="L4">
-        <v>1.0588948165296</v>
+        <v>1.035225797053882</v>
       </c>
       <c r="M4">
-        <v>1.076084818791365</v>
+        <v>1.058262288484406</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.061447016811284</v>
+        <v>1.027114236986112</v>
       </c>
       <c r="D5">
-        <v>1.065093335774026</v>
+        <v>1.045508739529366</v>
       </c>
       <c r="E5">
-        <v>1.056872610763556</v>
+        <v>1.027487560272903</v>
       </c>
       <c r="F5">
-        <v>1.074102725050798</v>
+        <v>1.050762461777769</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04897095987755</v>
+        <v>1.060379328564048</v>
       </c>
       <c r="J5">
-        <v>1.065765699724994</v>
+        <v>1.045411758875383</v>
       </c>
       <c r="K5">
-        <v>1.067455666623572</v>
+        <v>1.054875643207239</v>
       </c>
       <c r="L5">
-        <v>1.059254262085241</v>
+        <v>1.037048602362446</v>
       </c>
       <c r="M5">
-        <v>1.076444245917837</v>
+        <v>1.060074299852274</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.061525613827975</v>
+        <v>1.027510268592734</v>
       </c>
       <c r="D6">
-        <v>1.065155886251875</v>
+        <v>1.045824623586011</v>
       </c>
       <c r="E6">
-        <v>1.056941592053395</v>
+        <v>1.027831507653815</v>
       </c>
       <c r="F6">
-        <v>1.074171556597444</v>
+        <v>1.051103397796613</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048994124384609</v>
+        <v>1.060525107321499</v>
       </c>
       <c r="J6">
-        <v>1.065828225353812</v>
+        <v>1.045725352852604</v>
       </c>
       <c r="K6">
-        <v>1.067509628307764</v>
+        <v>1.055152678266798</v>
       </c>
       <c r="L6">
-        <v>1.059314564724134</v>
+        <v>1.037352420161964</v>
       </c>
       <c r="M6">
-        <v>1.07650455468072</v>
+        <v>1.060376401985332</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.060984928679717</v>
+        <v>1.024771101162459</v>
       </c>
       <c r="D7">
-        <v>1.064725565188528</v>
+        <v>1.043639982327917</v>
       </c>
       <c r="E7">
-        <v>1.056467014847937</v>
+        <v>1.02545256519997</v>
       </c>
       <c r="F7">
-        <v>1.073698063435705</v>
+        <v>1.048745804349791</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048834613662381</v>
+        <v>1.059515520993651</v>
       </c>
       <c r="J7">
-        <v>1.065398023129205</v>
+        <v>1.043555838164245</v>
       </c>
       <c r="K7">
-        <v>1.067138321903632</v>
+        <v>1.053235931071313</v>
       </c>
       <c r="L7">
-        <v>1.058899622806071</v>
+        <v>1.035250305088027</v>
       </c>
       <c r="M7">
-        <v>1.07608962420306</v>
+        <v>1.058286645739995</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.058718939341728</v>
+        <v>1.01290018536189</v>
       </c>
       <c r="D8">
-        <v>1.062921532772319</v>
+        <v>1.034177935693505</v>
       </c>
       <c r="E8">
-        <v>1.054477069542585</v>
+        <v>1.015142984041832</v>
       </c>
       <c r="F8">
-        <v>1.071714014488179</v>
+        <v>1.038542451001444</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048162189738353</v>
+        <v>1.055107584721863</v>
       </c>
       <c r="J8">
-        <v>1.06359318258187</v>
+        <v>1.034140685618963</v>
       </c>
       <c r="K8">
-        <v>1.065579881671759</v>
+        <v>1.04491402212674</v>
       </c>
       <c r="L8">
-        <v>1.05715793412514</v>
+        <v>1.026121667609256</v>
       </c>
       <c r="M8">
-        <v>1.074349326934912</v>
+        <v>1.049224472586186</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.054702296365188</v>
+        <v>0.9901298103473679</v>
       </c>
       <c r="D9">
-        <v>1.059721659471585</v>
+        <v>1.016062149535326</v>
       </c>
       <c r="E9">
-        <v>1.05094593520868</v>
+        <v>0.9953758122506537</v>
       </c>
       <c r="F9">
-        <v>1.068198517476201</v>
+        <v>1.019037701714288</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046955483554464</v>
+        <v>1.046530606434979</v>
       </c>
       <c r="J9">
-        <v>1.0603868823516</v>
+        <v>1.016035990472958</v>
       </c>
       <c r="K9">
-        <v>1.062808747583995</v>
+        <v>1.028899895969908</v>
       </c>
       <c r="L9">
-        <v>1.05406051604946</v>
+        <v>1.008544361868938</v>
       </c>
       <c r="M9">
-        <v>1.071259517233207</v>
+        <v>1.03182927616375</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.052007657544746</v>
+        <v>0.9734001722719359</v>
       </c>
       <c r="D10">
-        <v>1.057573641600839</v>
+        <v>1.002789139808594</v>
       </c>
       <c r="E10">
-        <v>1.048574471348</v>
+        <v>0.9808672227052513</v>
       </c>
       <c r="F10">
-        <v>1.065841100597632</v>
+        <v>1.004767782086761</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046136025715468</v>
+        <v>1.040152092055699</v>
       </c>
       <c r="J10">
-        <v>1.05823113736911</v>
+        <v>1.002710399720758</v>
       </c>
       <c r="K10">
-        <v>1.060943890426828</v>
+        <v>1.017108217420864</v>
       </c>
       <c r="L10">
-        <v>1.051975736321832</v>
+        <v>0.9955907370331071</v>
       </c>
       <c r="M10">
-        <v>1.069183362327295</v>
+        <v>1.019051483057993</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.050836632389139</v>
+        <v>0.9657032222329532</v>
       </c>
       <c r="D11">
-        <v>1.056639867987466</v>
+        <v>0.9966949878450679</v>
       </c>
       <c r="E11">
-        <v>1.047543293001747</v>
+        <v>0.9741980825168198</v>
       </c>
       <c r="F11">
-        <v>1.064816884663705</v>
+        <v>0.998220851884681</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045777563910668</v>
+        <v>1.037200985764337</v>
       </c>
       <c r="J11">
-        <v>1.057293183857207</v>
+        <v>0.9965758218884559</v>
       </c>
       <c r="K11">
-        <v>1.060132105555585</v>
+        <v>1.011679502164735</v>
       </c>
       <c r="L11">
-        <v>1.051068124609696</v>
+        <v>0.9896235598485272</v>
       </c>
       <c r="M11">
-        <v>1.06828034676959</v>
+        <v>1.01317639850907</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.050401007657316</v>
+        <v>0.9627672185609206</v>
       </c>
       <c r="D12">
-        <v>1.056292458381121</v>
+        <v>0.9943726242813387</v>
       </c>
       <c r="E12">
-        <v>1.047159602349567</v>
+        <v>0.9716552900297214</v>
       </c>
       <c r="F12">
-        <v>1.064435914150284</v>
+        <v>0.9957266871398482</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04564386334023</v>
+        <v>1.036072993406643</v>
       </c>
       <c r="J12">
-        <v>1.056944094849261</v>
+        <v>0.9942354201611254</v>
       </c>
       <c r="K12">
-        <v>1.05982991538922</v>
+        <v>1.009608435930061</v>
       </c>
       <c r="L12">
-        <v>1.050730247642173</v>
+        <v>0.9873464511967892</v>
       </c>
       <c r="M12">
-        <v>1.067944308074646</v>
+        <v>1.010936217585901</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.050494480528784</v>
+        <v>0.9634006492776317</v>
       </c>
       <c r="D13">
-        <v>1.056367004684393</v>
+        <v>0.9948735564285378</v>
       </c>
       <c r="E13">
-        <v>1.04724193565691</v>
+        <v>0.9722038304442562</v>
       </c>
       <c r="F13">
-        <v>1.064517657886601</v>
+        <v>0.9962646431101059</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045672567643766</v>
+        <v>1.03631645314217</v>
       </c>
       <c r="J13">
-        <v>1.057019007152128</v>
+        <v>0.9947403651069593</v>
       </c>
       <c r="K13">
-        <v>1.059894766147056</v>
+        <v>1.01005526796474</v>
       </c>
       <c r="L13">
-        <v>1.050802757563159</v>
+        <v>0.9878377662425383</v>
       </c>
       <c r="M13">
-        <v>1.068016417723265</v>
+        <v>1.011419482505116</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.050800636959164</v>
+        <v>0.9654621603397372</v>
       </c>
       <c r="D14">
-        <v>1.056611162595421</v>
+        <v>0.9965042612101748</v>
       </c>
       <c r="E14">
-        <v>1.047511590675233</v>
+        <v>0.9739892804411328</v>
       </c>
       <c r="F14">
-        <v>1.064785404441023</v>
+        <v>0.9980160008302108</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045766523475363</v>
+        <v>1.037108416634853</v>
       </c>
       <c r="J14">
-        <v>1.057264342240737</v>
+        <v>0.9963836682814653</v>
       </c>
       <c r="K14">
-        <v>1.060107139901145</v>
+        <v>1.011509460378732</v>
       </c>
       <c r="L14">
-        <v>1.051040210973337</v>
+        <v>0.98943661431038</v>
       </c>
       <c r="M14">
-        <v>1.068252582402512</v>
+        <v>1.012992447832609</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.050989182841146</v>
+        <v>0.966721822787012</v>
       </c>
       <c r="D15">
-        <v>1.056761521133533</v>
+        <v>0.9975009917520556</v>
       </c>
       <c r="E15">
-        <v>1.04767764541029</v>
+        <v>0.9750804184288446</v>
       </c>
       <c r="F15">
-        <v>1.064950301116838</v>
+        <v>0.9990865752369983</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045824339441109</v>
+        <v>1.037592042460943</v>
       </c>
       <c r="J15">
-        <v>1.0574154092293</v>
+        <v>0.9973877482632225</v>
       </c>
       <c r="K15">
-        <v>1.060237902923338</v>
+        <v>1.012397999431362</v>
       </c>
       <c r="L15">
-        <v>1.05118641407533</v>
+        <v>0.9904134569047651</v>
       </c>
       <c r="M15">
-        <v>1.068398008889643</v>
+        <v>1.013953714461044</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.052085283956068</v>
+        <v>0.9739007234166673</v>
       </c>
       <c r="D16">
-        <v>1.057635534659153</v>
+        <v>1.00318574368032</v>
       </c>
       <c r="E16">
-        <v>1.048642814883365</v>
+        <v>0.9813010757680203</v>
       </c>
       <c r="F16">
-        <v>1.065909000752556</v>
+        <v>1.005193954231954</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046159738599958</v>
+        <v>1.040343685571107</v>
       </c>
       <c r="J16">
-        <v>1.05829329013411</v>
+        <v>1.00310928468606</v>
       </c>
       <c r="K16">
-        <v>1.060997674462921</v>
+        <v>1.017461206400518</v>
       </c>
       <c r="L16">
-        <v>1.052035867241294</v>
+        <v>0.9959786586848278</v>
       </c>
       <c r="M16">
-        <v>1.069243206504865</v>
+        <v>1.019433655174618</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.052771694054881</v>
+        <v>0.9782767772969319</v>
       </c>
       <c r="D17">
-        <v>1.058182788839463</v>
+        <v>1.006654475122333</v>
       </c>
       <c r="E17">
-        <v>1.049247072507124</v>
+        <v>0.9850947150375099</v>
       </c>
       <c r="F17">
-        <v>1.066509436867205</v>
+        <v>1.008921845528035</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046369149006053</v>
+        <v>1.042016861772783</v>
       </c>
       <c r="J17">
-        <v>1.058842745875994</v>
+        <v>1.006596124853119</v>
       </c>
       <c r="K17">
-        <v>1.06147310177123</v>
+        <v>1.020546824701875</v>
       </c>
       <c r="L17">
-        <v>1.052567387383254</v>
+        <v>0.9993692346072006</v>
       </c>
       <c r="M17">
-        <v>1.069772289052646</v>
+        <v>1.022775230172561</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.053171658699874</v>
+        <v>0.980786242982585</v>
       </c>
       <c r="D18">
-        <v>1.058501639983026</v>
+        <v>1.008644766536762</v>
       </c>
       <c r="E18">
-        <v>1.049599110156375</v>
+        <v>0.9872707277158078</v>
       </c>
       <c r="F18">
-        <v>1.06685933027904</v>
+        <v>1.011061297900666</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046490944632908</v>
+        <v>1.042974804881601</v>
       </c>
       <c r="J18">
-        <v>1.05916280078532</v>
+        <v>1.008595303625807</v>
       </c>
       <c r="K18">
-        <v>1.061749997474784</v>
+        <v>1.022315930008981</v>
       </c>
       <c r="L18">
-        <v>1.052876943468188</v>
+        <v>1.001312863067812</v>
       </c>
       <c r="M18">
-        <v>1.070080506347617</v>
+        <v>1.024691791936595</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.053307967872826</v>
+        <v>0.9816348561070166</v>
       </c>
       <c r="D19">
-        <v>1.05861030052012</v>
+        <v>1.009317995330926</v>
       </c>
       <c r="E19">
-        <v>1.049719075893093</v>
+        <v>0.9880066626524454</v>
       </c>
       <c r="F19">
-        <v>1.066978579213263</v>
+        <v>1.011785059350371</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046532414632706</v>
+        <v>1.043298480291031</v>
       </c>
       <c r="J19">
-        <v>1.059271858188925</v>
+        <v>1.009271288654211</v>
       </c>
       <c r="K19">
-        <v>1.061844342083201</v>
+        <v>1.022914112077254</v>
       </c>
       <c r="L19">
-        <v>1.052982414723736</v>
+        <v>1.001970004103371</v>
       </c>
       <c r="M19">
-        <v>1.070185535142712</v>
+        <v>1.025339952030965</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.052698090953404</v>
+        <v>0.9778117766162245</v>
       </c>
       <c r="D20">
-        <v>1.058124110250785</v>
+        <v>1.00628576631266</v>
       </c>
       <c r="E20">
-        <v>1.049182284487373</v>
+        <v>0.9846915445252352</v>
       </c>
       <c r="F20">
-        <v>1.066445050076735</v>
+        <v>1.008525541432606</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046346717491067</v>
+        <v>1.041839229415316</v>
       </c>
       <c r="J20">
-        <v>1.058783839404239</v>
+        <v>1.00622564884471</v>
       </c>
       <c r="K20">
-        <v>1.061422135730705</v>
+        <v>1.020218981308076</v>
       </c>
       <c r="L20">
-        <v>1.052510409090183</v>
+        <v>0.9990090238249449</v>
       </c>
       <c r="M20">
-        <v>1.0697155636918</v>
+        <v>1.022420117915982</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.050710499720432</v>
+        <v>0.9648573033536645</v>
       </c>
       <c r="D21">
-        <v>1.056539279868397</v>
+        <v>0.9960257397496041</v>
       </c>
       <c r="E21">
-        <v>1.047432202484727</v>
+        <v>0.9734653871726228</v>
       </c>
       <c r="F21">
-        <v>1.064706574532445</v>
+        <v>0.9975020540110309</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045738871111203</v>
+        <v>1.036876112035538</v>
       </c>
       <c r="J21">
-        <v>1.057192116376705</v>
+        <v>0.9959015236951938</v>
       </c>
       <c r="K21">
-        <v>1.060044619366205</v>
+        <v>1.011082798927153</v>
       </c>
       <c r="L21">
-        <v>1.050970307676626</v>
+        <v>0.9889675284585197</v>
       </c>
       <c r="M21">
-        <v>1.068183054974101</v>
+        <v>1.012530905785742</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.049457029924785</v>
+        <v>0.9562609346177542</v>
       </c>
       <c r="D22">
-        <v>1.055539561229508</v>
+        <v>0.9892308362635623</v>
       </c>
       <c r="E22">
-        <v>1.046328000218802</v>
+        <v>0.9660228414196464</v>
       </c>
       <c r="F22">
-        <v>1.063610445817473</v>
+        <v>0.9902059050361159</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045353497663065</v>
+        <v>1.033569314003279</v>
       </c>
       <c r="J22">
-        <v>1.056187329673078</v>
+        <v>0.9890485884179245</v>
       </c>
       <c r="K22">
-        <v>1.05917471186443</v>
+        <v>1.005018694312458</v>
       </c>
       <c r="L22">
-        <v>1.049997640403431</v>
+        <v>0.9822988396942105</v>
       </c>
       <c r="M22">
-        <v>1.06721592058968</v>
+        <v>1.005973914141364</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.050121883685967</v>
+        <v>0.9608642898675828</v>
       </c>
       <c r="D23">
-        <v>1.056069845768155</v>
+        <v>0.9928681057588988</v>
       </c>
       <c r="E23">
-        <v>1.046913729730894</v>
+        <v>0.9700075772636414</v>
       </c>
       <c r="F23">
-        <v>1.064191821222834</v>
+        <v>0.9941110791045109</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045558096534513</v>
+        <v>1.035341280785734</v>
       </c>
       <c r="J23">
-        <v>1.056720371004389</v>
+        <v>0.992718447411024</v>
       </c>
       <c r="K23">
-        <v>1.059636231546261</v>
+        <v>1.008266061459144</v>
       </c>
       <c r="L23">
-        <v>1.050513686628482</v>
+        <v>0.9858703425468625</v>
       </c>
       <c r="M23">
-        <v>1.067728961232717</v>
+        <v>1.009484566468107</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.052731350283306</v>
+        <v>0.9780220226675506</v>
       </c>
       <c r="D24">
-        <v>1.058150625669727</v>
+        <v>1.00645247132384</v>
       </c>
       <c r="E24">
-        <v>1.049211560688679</v>
+        <v>0.9848738329521683</v>
       </c>
       <c r="F24">
-        <v>1.066474144717925</v>
+        <v>1.008704721721212</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046356854408302</v>
+        <v>1.041919549181863</v>
       </c>
       <c r="J24">
-        <v>1.05881045804198</v>
+        <v>1.006393157526289</v>
       </c>
       <c r="K24">
-        <v>1.061445166366618</v>
+        <v>1.020367213997359</v>
       </c>
       <c r="L24">
-        <v>1.052536156582179</v>
+        <v>0.9991718922534248</v>
       </c>
       <c r="M24">
-        <v>1.069741196638185</v>
+        <v>1.022580677883224</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.055743598831266</v>
+        <v>0.9962644360654583</v>
       </c>
       <c r="D25">
-        <v>1.06055145536722</v>
+        <v>1.020937625699263</v>
       </c>
       <c r="E25">
-        <v>1.051861818507636</v>
+        <v>1.000699584077176</v>
       </c>
       <c r="F25">
-        <v>1.069109726669904</v>
+        <v>1.024283495160333</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047270063626385</v>
+        <v>1.048854790361145</v>
       </c>
       <c r="J25">
-        <v>1.061218940711611</v>
+        <v>1.020918174163425</v>
       </c>
       <c r="K25">
-        <v>1.063528176960801</v>
+        <v>1.033219379712746</v>
       </c>
       <c r="L25">
-        <v>1.054864711110113</v>
+        <v>1.013287049602707</v>
       </c>
       <c r="M25">
-        <v>1.072061125483575</v>
+        <v>1.036516183959028</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
